--- a/biology/Zoologie/Dasypoda/Dasypoda.xlsx
+++ b/biology/Zoologie/Dasypoda/Dasypoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dasypoda est un genre d'insectes hyménoptères aculéates apoïdes (abeilles) aux pattes velues (du grec ancien δασύπους (dasúpous), "aux pattes velues"), traditionnellement placé dans la famille des Melittidae et récemment placé dans la famille des Dasypodaidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dasypoda albimana Pérez, 1905
